--- a/data/example_data.xlsx
+++ b/data/example_data.xlsx
@@ -448,7 +448,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45566.43022618313</v>
+        <v>45575.59670945146</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -464,7 +464,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45566.4302377572</v>
+        <v>45575.59672102553</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -480,7 +480,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45566.43024933127</v>
+        <v>45575.59673259961</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
